--- a/Code/Results/Cases/Case_0_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.7538045352251027</v>
+        <v>1.098088674980769</v>
       </c>
       <c r="D2">
-        <v>0.7741627598770062</v>
+        <v>1.105694528146041</v>
       </c>
       <c r="E2">
-        <v>0.7848878803947787</v>
+        <v>1.088209533992204</v>
       </c>
       <c r="F2">
-        <v>0.786588312399172</v>
+        <v>1.107066652842347</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026258691785709</v>
+        <v>1.030414779499211</v>
       </c>
       <c r="J2">
-        <v>0.7870527216627413</v>
+        <v>1.102882264957339</v>
       </c>
       <c r="K2">
-        <v>0.79002372325379</v>
+        <v>1.108303568967015</v>
       </c>
       <c r="L2">
-        <v>0.8004619266247326</v>
+        <v>1.090862811102073</v>
       </c>
       <c r="M2">
-        <v>0.8021178424143973</v>
+        <v>1.109672285910724</v>
       </c>
       <c r="N2">
-        <v>0.7881704268037116</v>
+        <v>1.104448484275943</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.852982122927</v>
+        <v>1.102959391417342</v>
       </c>
       <c r="D3">
-        <v>0.8695354157880855</v>
+        <v>1.110449069066241</v>
       </c>
       <c r="E3">
-        <v>0.8719182346738836</v>
+        <v>1.092523156267567</v>
       </c>
       <c r="F3">
-        <v>0.8790934555234081</v>
+        <v>1.11166203794188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03357779652016</v>
+        <v>1.030642097196377</v>
       </c>
       <c r="J3">
-        <v>0.8784781253188746</v>
+        <v>1.107403508153479</v>
       </c>
       <c r="K3">
-        <v>0.882163299571415</v>
+        <v>1.112871936866275</v>
       </c>
       <c r="L3">
-        <v>0.8845027212709563</v>
+        <v>1.09498781784806</v>
       </c>
       <c r="M3">
-        <v>0.8915491068542192</v>
+        <v>1.114082129908095</v>
       </c>
       <c r="N3">
-        <v>0.8797256650196769</v>
+        <v>1.108976148156015</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8895939875289355</v>
+        <v>1.106070568209831</v>
       </c>
       <c r="D4">
-        <v>0.9048963072153781</v>
+        <v>1.113485440477799</v>
       </c>
       <c r="E4">
-        <v>0.904221184284437</v>
+        <v>1.095276914843258</v>
       </c>
       <c r="F4">
-        <v>0.9134745931713115</v>
+        <v>1.114595253736348</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036334222856916</v>
+        <v>1.030783449794507</v>
       </c>
       <c r="J4">
-        <v>0.9123159780212426</v>
+        <v>1.110289561085009</v>
       </c>
       <c r="K4">
-        <v>0.9162964169885975</v>
+        <v>1.115788050440086</v>
       </c>
       <c r="L4">
-        <v>0.9156317844087867</v>
+        <v>1.097619672142038</v>
       </c>
       <c r="M4">
-        <v>0.9247431304911318</v>
+        <v>1.116895462012829</v>
       </c>
       <c r="N4">
-        <v>0.9136115713541382</v>
+        <v>1.111866299613742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9026904787915556</v>
+        <v>1.107369179490191</v>
       </c>
       <c r="D5">
-        <v>0.9175601737793446</v>
+        <v>1.114752682223799</v>
       </c>
       <c r="E5">
-        <v>0.9157907801251544</v>
+        <v>1.096425961107796</v>
       </c>
       <c r="F5">
-        <v>0.9257942370987468</v>
+        <v>1.115819078032995</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037321488520486</v>
+        <v>1.030841525027894</v>
       </c>
       <c r="J5">
-        <v>0.9244247481831629</v>
+        <v>1.111493750476121</v>
       </c>
       <c r="K5">
-        <v>0.9285143715094403</v>
+        <v>1.11700477651153</v>
       </c>
       <c r="L5">
-        <v>0.9267708702078218</v>
+        <v>1.098717495439312</v>
       </c>
       <c r="M5">
-        <v>0.9366295897783284</v>
+        <v>1.118068919930825</v>
       </c>
       <c r="N5">
-        <v>0.9257375373585836</v>
+        <v>1.113072199091913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9047898171502116</v>
+        <v>1.107586685528958</v>
       </c>
       <c r="D6">
-        <v>0.9195908112342194</v>
+        <v>1.114964925524294</v>
       </c>
       <c r="E6">
-        <v>0.9176459372826657</v>
+        <v>1.096618394098168</v>
       </c>
       <c r="F6">
-        <v>0.9277699298110621</v>
+        <v>1.11602402809267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03747967930986</v>
+        <v>1.030851197667332</v>
       </c>
       <c r="J6">
-        <v>0.926365866101678</v>
+        <v>1.111695414971775</v>
       </c>
       <c r="K6">
-        <v>0.9304731564079887</v>
+        <v>1.117208540134481</v>
       </c>
       <c r="L6">
-        <v>0.9285564651528251</v>
+        <v>1.098901329126323</v>
       </c>
       <c r="M6">
-        <v>0.9385353884065692</v>
+        <v>1.118265414920576</v>
       </c>
       <c r="N6">
-        <v>0.9276814118871924</v>
+        <v>1.113274149974281</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8897762464774788</v>
+        <v>1.1060879564892</v>
       </c>
       <c r="D7">
-        <v>0.9050724959956712</v>
+        <v>1.113502409299086</v>
       </c>
       <c r="E7">
-        <v>0.9043821486800923</v>
+        <v>1.095292301952369</v>
       </c>
       <c r="F7">
-        <v>0.9136459727268471</v>
+        <v>1.114611642624012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036347964208558</v>
+        <v>1.030784231069518</v>
       </c>
       <c r="J7">
-        <v>0.9124844807061623</v>
+        <v>1.110305686856916</v>
       </c>
       <c r="K7">
-        <v>0.9164664267699451</v>
+        <v>1.115804344120403</v>
       </c>
       <c r="L7">
-        <v>0.915786797551584</v>
+        <v>1.097634374717882</v>
       </c>
       <c r="M7">
-        <v>0.9249085143461055</v>
+        <v>1.116911177785427</v>
       </c>
       <c r="N7">
-        <v>0.9137803133321978</v>
+        <v>1.111882448286095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8000330102922413</v>
+        <v>1.099743369558077</v>
       </c>
       <c r="D8">
-        <v>0.8185290729602276</v>
+        <v>1.107309878670592</v>
       </c>
       <c r="E8">
-        <v>0.8253471978124096</v>
+        <v>1.089675298802168</v>
       </c>
       <c r="F8">
-        <v>0.8295701145849683</v>
+        <v>1.108628245297256</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029632146247379</v>
+        <v>1.03049280532548</v>
       </c>
       <c r="J8">
-        <v>0.8296083386928155</v>
+        <v>1.104418631465595</v>
       </c>
       <c r="K8">
-        <v>0.8328953127570156</v>
+        <v>1.109855952608703</v>
       </c>
       <c r="L8">
-        <v>0.8395599685007434</v>
+        <v>1.092264797645044</v>
       </c>
       <c r="M8">
-        <v>0.8436895131969763</v>
+        <v>1.11117113243636</v>
       </c>
       <c r="N8">
-        <v>0.8307864776911659</v>
+        <v>1.105987032600865</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8000330102922413</v>
+        <v>1.088235870116299</v>
       </c>
       <c r="D9">
-        <v>0.8185290729602276</v>
+        <v>1.096073583794844</v>
       </c>
       <c r="E9">
-        <v>0.8253471978124096</v>
+        <v>1.079475141734748</v>
       </c>
       <c r="F9">
-        <v>0.8295701145849683</v>
+        <v>1.097759621190553</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029632146247379</v>
+        <v>1.029934201343458</v>
       </c>
       <c r="J9">
-        <v>0.8296083386928155</v>
+        <v>1.093726086193293</v>
       </c>
       <c r="K9">
-        <v>0.8328953127570156</v>
+        <v>1.099051890669819</v>
       </c>
       <c r="L9">
-        <v>0.8395599685007434</v>
+        <v>1.082502128622125</v>
       </c>
       <c r="M9">
-        <v>0.8436895131969763</v>
+        <v>1.100733072756442</v>
       </c>
       <c r="N9">
-        <v>0.8307864776911659</v>
+        <v>1.095279302687823</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8000330102922413</v>
+        <v>1.080318567965686</v>
       </c>
       <c r="D10">
-        <v>0.8185290729602276</v>
+        <v>1.088339930342042</v>
       </c>
       <c r="E10">
-        <v>0.8253471978124096</v>
+        <v>1.072449045978129</v>
       </c>
       <c r="F10">
-        <v>0.8295701145849683</v>
+        <v>1.090271188024423</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029632146247379</v>
+        <v>1.02952982200379</v>
       </c>
       <c r="J10">
-        <v>0.8296083386928155</v>
+        <v>1.086359419506987</v>
       </c>
       <c r="K10">
-        <v>0.8328953127570156</v>
+        <v>1.091608387784106</v>
       </c>
       <c r="L10">
-        <v>0.8395599685007434</v>
+        <v>1.075769278950562</v>
       </c>
       <c r="M10">
-        <v>0.8436895131969763</v>
+        <v>1.093533465656913</v>
       </c>
       <c r="N10">
-        <v>0.8307864776911659</v>
+        <v>1.087902174489854</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8000330102922413</v>
+        <v>1.076825984059971</v>
       </c>
       <c r="D11">
-        <v>0.8185290729602276</v>
+        <v>1.084927698830576</v>
       </c>
       <c r="E11">
-        <v>0.8253471978124096</v>
+        <v>1.069347659027814</v>
       </c>
       <c r="F11">
-        <v>0.8295701145849683</v>
+        <v>1.086965325642246</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029632146247379</v>
+        <v>1.029346738060513</v>
       </c>
       <c r="J11">
-        <v>0.8296083386928155</v>
+        <v>1.083107354532027</v>
       </c>
       <c r="K11">
-        <v>0.8328953127570156</v>
+        <v>1.08832241755796</v>
       </c>
       <c r="L11">
-        <v>0.8395599685007434</v>
+        <v>1.072795385631259</v>
       </c>
       <c r="M11">
-        <v>0.8436895131969763</v>
+        <v>1.090353235146621</v>
       </c>
       <c r="N11">
-        <v>0.8307864776911659</v>
+        <v>1.084645491209613</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8000330102922413</v>
+        <v>1.075518468687145</v>
       </c>
       <c r="D12">
-        <v>0.8185290729602276</v>
+        <v>1.083650168936316</v>
       </c>
       <c r="E12">
-        <v>0.8253471978124096</v>
+        <v>1.068186305326908</v>
       </c>
       <c r="F12">
-        <v>0.8295701145849683</v>
+        <v>1.085727348650377</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029632146247379</v>
+        <v>1.029277496575626</v>
       </c>
       <c r="J12">
-        <v>0.8296083386928155</v>
+        <v>1.08188952420399</v>
       </c>
       <c r="K12">
-        <v>0.8328953127570156</v>
+        <v>1.087091894033819</v>
       </c>
       <c r="L12">
-        <v>0.8395599685007434</v>
+        <v>1.071681478781001</v>
       </c>
       <c r="M12">
-        <v>0.8436895131969763</v>
+        <v>1.089162021821121</v>
       </c>
       <c r="N12">
-        <v>0.8307864776911659</v>
+        <v>1.083425931422822</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8000330102922413</v>
+        <v>1.075799406535542</v>
       </c>
       <c r="D13">
-        <v>0.8185290729602276</v>
+        <v>1.08392466827037</v>
       </c>
       <c r="E13">
-        <v>0.8253471978124096</v>
+        <v>1.068435851405535</v>
       </c>
       <c r="F13">
-        <v>0.8295701145849683</v>
+        <v>1.085993361578363</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029632146247379</v>
+        <v>1.029292405645373</v>
       </c>
       <c r="J13">
-        <v>0.8296083386928155</v>
+        <v>1.082151208138834</v>
       </c>
       <c r="K13">
-        <v>0.8328953127570156</v>
+        <v>1.087356305260222</v>
       </c>
       <c r="L13">
-        <v>0.8395599685007434</v>
+        <v>1.071920843066231</v>
       </c>
       <c r="M13">
-        <v>0.8436895131969763</v>
+        <v>1.089417999114164</v>
       </c>
       <c r="N13">
-        <v>0.8307864776911659</v>
+        <v>1.08368798697887</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8000330102922413</v>
+        <v>1.076718116077813</v>
       </c>
       <c r="D14">
-        <v>0.8185290729602276</v>
+        <v>1.084822306536692</v>
       </c>
       <c r="E14">
-        <v>0.8253471978124096</v>
+        <v>1.06925185505448</v>
       </c>
       <c r="F14">
-        <v>0.8295701145849683</v>
+        <v>1.08686320184591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029632146247379</v>
+        <v>1.029341039968344</v>
       </c>
       <c r="J14">
-        <v>0.8296083386928155</v>
+        <v>1.083006892704245</v>
       </c>
       <c r="K14">
-        <v>0.8328953127570156</v>
+        <v>1.088220908555298</v>
       </c>
       <c r="L14">
-        <v>0.8395599685007434</v>
+        <v>1.072703501717904</v>
       </c>
       <c r="M14">
-        <v>0.8436895131969763</v>
+        <v>1.090254974764436</v>
       </c>
       <c r="N14">
-        <v>0.8307864776911659</v>
+        <v>1.084544886714512</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8000330102922413</v>
+        <v>1.077282792945092</v>
       </c>
       <c r="D15">
-        <v>0.8185290729602276</v>
+        <v>1.085374019554267</v>
       </c>
       <c r="E15">
-        <v>0.8253471978124096</v>
+        <v>1.06975336633653</v>
       </c>
       <c r="F15">
-        <v>0.8295701145849683</v>
+        <v>1.087397793703342</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029632146247379</v>
+        <v>1.029370840281826</v>
       </c>
       <c r="J15">
-        <v>0.8296083386928155</v>
+        <v>1.083532784575155</v>
       </c>
       <c r="K15">
-        <v>0.8328953127570156</v>
+        <v>1.088752282273774</v>
       </c>
       <c r="L15">
-        <v>0.8395599685007434</v>
+        <v>1.07318448036326</v>
       </c>
       <c r="M15">
-        <v>0.8436895131969763</v>
+        <v>1.090769331086599</v>
       </c>
       <c r="N15">
-        <v>0.8307864776911659</v>
+        <v>1.0850715254122</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8000330102922413</v>
+        <v>1.080548957641251</v>
       </c>
       <c r="D16">
-        <v>0.8185290729602276</v>
+        <v>1.088565005994887</v>
       </c>
       <c r="E16">
-        <v>0.8253471978124096</v>
+        <v>1.072653589680603</v>
       </c>
       <c r="F16">
-        <v>0.8295701145849683</v>
+        <v>1.090489209474298</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029632146247379</v>
+        <v>1.029541801397023</v>
       </c>
       <c r="J16">
-        <v>0.8296083386928155</v>
+        <v>1.086573893424341</v>
       </c>
       <c r="K16">
-        <v>0.8328953127570156</v>
+        <v>1.091825098179554</v>
       </c>
       <c r="L16">
-        <v>0.8395599685007434</v>
+        <v>1.075965373245882</v>
       </c>
       <c r="M16">
-        <v>0.8436895131969763</v>
+        <v>1.093743162400807</v>
       </c>
       <c r="N16">
-        <v>0.8307864776911659</v>
+        <v>1.088116952984771</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8000330102922413</v>
+        <v>1.082580133877988</v>
       </c>
       <c r="D17">
-        <v>0.8185290729602276</v>
+        <v>1.090549257168752</v>
       </c>
       <c r="E17">
-        <v>0.8253471978124096</v>
+        <v>1.074456678827848</v>
       </c>
       <c r="F17">
-        <v>0.8295701145849683</v>
+        <v>1.092411062709513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029632146247379</v>
+        <v>1.029646878008233</v>
       </c>
       <c r="J17">
-        <v>0.8296083386928155</v>
+        <v>1.088464479390592</v>
       </c>
       <c r="K17">
-        <v>0.8328953127570156</v>
+        <v>1.093735400523138</v>
       </c>
       <c r="L17">
-        <v>0.8395599685007434</v>
+        <v>1.077693756337872</v>
       </c>
       <c r="M17">
-        <v>0.8436895131969763</v>
+        <v>1.095591419120876</v>
       </c>
       <c r="N17">
-        <v>0.8307864776911659</v>
+        <v>1.090010223799948</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8000330102922413</v>
+        <v>1.083758715370909</v>
       </c>
       <c r="D18">
-        <v>0.8185290729602276</v>
+        <v>1.091700547276454</v>
       </c>
       <c r="E18">
-        <v>0.8253471978124096</v>
+        <v>1.075502728163057</v>
       </c>
       <c r="F18">
-        <v>0.8295701145849683</v>
+        <v>1.093525974183618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029632146247379</v>
+        <v>1.029707399540612</v>
       </c>
       <c r="J18">
-        <v>0.8296083386928155</v>
+        <v>1.089561256398316</v>
       </c>
       <c r="K18">
-        <v>0.8328953127570156</v>
+        <v>1.09484361680003</v>
       </c>
       <c r="L18">
-        <v>0.8395599685007434</v>
+        <v>1.078696279815682</v>
       </c>
       <c r="M18">
-        <v>0.8436895131969763</v>
+        <v>1.096663456907097</v>
       </c>
       <c r="N18">
-        <v>0.8307864776911659</v>
+        <v>1.091108558356825</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8000330102922413</v>
+        <v>1.084159550915401</v>
       </c>
       <c r="D19">
-        <v>0.8185290729602276</v>
+        <v>1.092092090184106</v>
       </c>
       <c r="E19">
-        <v>0.8253471978124096</v>
+        <v>1.075858457998562</v>
       </c>
       <c r="F19">
-        <v>0.8295701145849683</v>
+        <v>1.093905115377405</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029632146247379</v>
+        <v>1.029727906641241</v>
       </c>
       <c r="J19">
-        <v>0.8296083386928155</v>
+        <v>1.089934231626868</v>
       </c>
       <c r="K19">
-        <v>0.8328953127570156</v>
+        <v>1.095220482299439</v>
       </c>
       <c r="L19">
-        <v>0.8395599685007434</v>
+        <v>1.079037176388342</v>
       </c>
       <c r="M19">
-        <v>0.8436895131969763</v>
+        <v>1.097027988042648</v>
       </c>
       <c r="N19">
-        <v>0.8307864776911659</v>
+        <v>1.091482063252982</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8000330102922413</v>
+        <v>1.082362849863556</v>
       </c>
       <c r="D20">
-        <v>0.8185290729602276</v>
+        <v>1.09033699947703</v>
       </c>
       <c r="E20">
-        <v>0.8253471978124096</v>
+        <v>1.074263813533468</v>
       </c>
       <c r="F20">
-        <v>0.8295701145849683</v>
+        <v>1.092205497862282</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029632146247379</v>
+        <v>1.02963568396303</v>
       </c>
       <c r="J20">
-        <v>0.8296083386928155</v>
+        <v>1.088262258530132</v>
       </c>
       <c r="K20">
-        <v>0.8328953127570156</v>
+        <v>1.093531070615051</v>
       </c>
       <c r="L20">
-        <v>0.8395599685007434</v>
+        <v>1.077508901148021</v>
       </c>
       <c r="M20">
-        <v>0.8436895131969763</v>
+        <v>1.095393744814845</v>
       </c>
       <c r="N20">
-        <v>0.8307864776911659</v>
+        <v>1.08980771576267</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8000330102922413</v>
+        <v>1.07644786553783</v>
       </c>
       <c r="D21">
-        <v>0.8185290729602276</v>
+        <v>1.084558257006801</v>
       </c>
       <c r="E21">
-        <v>0.8253471978124096</v>
+        <v>1.069011824793765</v>
       </c>
       <c r="F21">
-        <v>0.8295701145849683</v>
+        <v>1.086607336834616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029632146247379</v>
+        <v>1.029326752793176</v>
       </c>
       <c r="J21">
-        <v>0.8296083386928155</v>
+        <v>1.082755191645702</v>
       </c>
       <c r="K21">
-        <v>0.8328953127570156</v>
+        <v>1.087966583926296</v>
       </c>
       <c r="L21">
-        <v>0.8395599685007434</v>
+        <v>1.072473288138369</v>
       </c>
       <c r="M21">
-        <v>0.8436895131969763</v>
+        <v>1.090008784739351</v>
       </c>
       <c r="N21">
-        <v>0.8307864776911659</v>
+        <v>1.084292828211595</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8000330102922413</v>
+        <v>1.072669489033344</v>
       </c>
       <c r="D22">
-        <v>0.8185290729602276</v>
+        <v>1.080866353138239</v>
       </c>
       <c r="E22">
-        <v>0.8253471978124096</v>
+        <v>1.065655270269163</v>
       </c>
       <c r="F22">
-        <v>0.8295701145849683</v>
+        <v>1.083029226420204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029632146247379</v>
+        <v>1.029125345077349</v>
       </c>
       <c r="J22">
-        <v>0.8296083386928155</v>
+        <v>1.079235305608551</v>
       </c>
       <c r="K22">
-        <v>0.8328953127570156</v>
+        <v>1.08441001929142</v>
       </c>
       <c r="L22">
-        <v>0.8395599685007434</v>
+        <v>1.069253305272066</v>
       </c>
       <c r="M22">
-        <v>0.8436895131969763</v>
+        <v>1.086565298503553</v>
       </c>
       <c r="N22">
-        <v>0.8307864776911659</v>
+        <v>1.080767943532534</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8000330102922413</v>
+        <v>1.074678298860124</v>
       </c>
       <c r="D23">
-        <v>0.8185290729602276</v>
+        <v>1.08282924027204</v>
       </c>
       <c r="E23">
-        <v>0.8253471978124096</v>
+        <v>1.067439973004005</v>
       </c>
       <c r="F23">
-        <v>0.8295701145849683</v>
+        <v>1.084931760255443</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029632146247379</v>
+        <v>1.029232807480627</v>
       </c>
       <c r="J23">
-        <v>0.8296083386928155</v>
+        <v>1.081106882560087</v>
       </c>
       <c r="K23">
-        <v>0.8328953127570156</v>
+        <v>1.086301096274631</v>
       </c>
       <c r="L23">
-        <v>0.8395599685007434</v>
+        <v>1.070965554413382</v>
       </c>
       <c r="M23">
-        <v>0.8436895131969763</v>
+        <v>1.088396406348006</v>
       </c>
       <c r="N23">
-        <v>0.8307864776911659</v>
+        <v>1.082642178338015</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8000330102922413</v>
+        <v>1.082461050182496</v>
       </c>
       <c r="D24">
-        <v>0.8185290729602276</v>
+        <v>1.090432928373324</v>
       </c>
       <c r="E24">
-        <v>0.8253471978124096</v>
+        <v>1.074350978520649</v>
       </c>
       <c r="F24">
-        <v>0.8295701145849683</v>
+        <v>1.092298402498641</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029632146247379</v>
+        <v>1.029640744440544</v>
       </c>
       <c r="J24">
-        <v>0.8296083386928155</v>
+        <v>1.088353651844062</v>
       </c>
       <c r="K24">
-        <v>0.8328953127570156</v>
+        <v>1.093623417104933</v>
       </c>
       <c r="L24">
-        <v>0.8395599685007434</v>
+        <v>1.077592446563426</v>
       </c>
       <c r="M24">
-        <v>0.8436895131969763</v>
+        <v>1.09548308388956</v>
       </c>
       <c r="N24">
-        <v>0.8307864776911659</v>
+        <v>1.089899238865589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8000330102922413</v>
+        <v>1.091252183279084</v>
       </c>
       <c r="D25">
-        <v>0.8185290729602276</v>
+        <v>1.099019332539834</v>
       </c>
       <c r="E25">
-        <v>0.8253471978124096</v>
+        <v>1.082150217529299</v>
       </c>
       <c r="F25">
-        <v>0.8295701145849683</v>
+        <v>1.100610351290175</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029632146247379</v>
+        <v>1.030084121830008</v>
       </c>
       <c r="J25">
-        <v>0.8296083386928155</v>
+        <v>1.096530533979314</v>
       </c>
       <c r="K25">
-        <v>0.8328953127570156</v>
+        <v>1.101885593418699</v>
       </c>
       <c r="L25">
-        <v>0.8395599685007434</v>
+        <v>1.085063868126499</v>
       </c>
       <c r="M25">
-        <v>0.8436895131969763</v>
+        <v>1.103472223830235</v>
       </c>
       <c r="N25">
-        <v>0.8307864776911659</v>
+        <v>1.098087733111375</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_238/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.098088674980769</v>
+        <v>0.7538045352251052</v>
       </c>
       <c r="D2">
-        <v>1.105694528146041</v>
+        <v>0.7741627598770087</v>
       </c>
       <c r="E2">
-        <v>1.088209533992204</v>
+        <v>0.7848878803947806</v>
       </c>
       <c r="F2">
-        <v>1.107066652842347</v>
+        <v>0.7865883123991741</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030414779499211</v>
+        <v>1.026258691785709</v>
       </c>
       <c r="J2">
-        <v>1.102882264957339</v>
+        <v>0.7870527216627439</v>
       </c>
       <c r="K2">
-        <v>1.108303568967015</v>
+        <v>0.7900237232537923</v>
       </c>
       <c r="L2">
-        <v>1.090862811102073</v>
+        <v>0.8004619266247346</v>
       </c>
       <c r="M2">
-        <v>1.109672285910724</v>
+        <v>0.8021178424143995</v>
       </c>
       <c r="N2">
-        <v>1.104448484275943</v>
+        <v>0.7881704268037141</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.102959391417342</v>
+        <v>0.8529821229269983</v>
       </c>
       <c r="D3">
-        <v>1.110449069066241</v>
+        <v>0.8695354157880844</v>
       </c>
       <c r="E3">
-        <v>1.092523156267567</v>
+        <v>0.8719182346738822</v>
       </c>
       <c r="F3">
-        <v>1.11166203794188</v>
+        <v>0.8790934555234071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030642097196377</v>
+        <v>1.03357779652016</v>
       </c>
       <c r="J3">
-        <v>1.107403508153479</v>
+        <v>0.878478125318873</v>
       </c>
       <c r="K3">
-        <v>1.112871936866275</v>
+        <v>0.8821632995714137</v>
       </c>
       <c r="L3">
-        <v>1.09498781784806</v>
+        <v>0.8845027212709549</v>
       </c>
       <c r="M3">
-        <v>1.114082129908095</v>
+        <v>0.8915491068542181</v>
       </c>
       <c r="N3">
-        <v>1.108976148156015</v>
+        <v>0.879725665019675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.106070568209831</v>
+        <v>0.8895939875289366</v>
       </c>
       <c r="D4">
-        <v>1.113485440477799</v>
+        <v>0.9048963072153791</v>
       </c>
       <c r="E4">
-        <v>1.095276914843258</v>
+        <v>0.9042211842844379</v>
       </c>
       <c r="F4">
-        <v>1.114595253736348</v>
+        <v>0.9134745931713125</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030783449794507</v>
+        <v>1.036334222856916</v>
       </c>
       <c r="J4">
-        <v>1.110289561085009</v>
+        <v>0.9123159780212436</v>
       </c>
       <c r="K4">
-        <v>1.115788050440086</v>
+        <v>0.9162964169885984</v>
       </c>
       <c r="L4">
-        <v>1.097619672142038</v>
+        <v>0.9156317844087875</v>
       </c>
       <c r="M4">
-        <v>1.116895462012829</v>
+        <v>0.9247431304911329</v>
       </c>
       <c r="N4">
-        <v>1.111866299613742</v>
+        <v>0.9136115713541393</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.107369179490191</v>
+        <v>0.9026904787915582</v>
       </c>
       <c r="D5">
-        <v>1.114752682223799</v>
+        <v>0.9175601737793468</v>
       </c>
       <c r="E5">
-        <v>1.096425961107796</v>
+        <v>0.9157907801251565</v>
       </c>
       <c r="F5">
-        <v>1.115819078032995</v>
+        <v>0.9257942370987488</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030841525027894</v>
+        <v>1.037321488520486</v>
       </c>
       <c r="J5">
-        <v>1.111493750476121</v>
+        <v>0.9244247481831652</v>
       </c>
       <c r="K5">
-        <v>1.11700477651153</v>
+        <v>0.9285143715094424</v>
       </c>
       <c r="L5">
-        <v>1.098717495439312</v>
+        <v>0.9267708702078239</v>
       </c>
       <c r="M5">
-        <v>1.118068919930825</v>
+        <v>0.9366295897783304</v>
       </c>
       <c r="N5">
-        <v>1.113072199091913</v>
+        <v>0.9257375373585859</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.107586685528958</v>
+        <v>0.9047898171502106</v>
       </c>
       <c r="D6">
-        <v>1.114964925524294</v>
+        <v>0.9195908112342185</v>
       </c>
       <c r="E6">
-        <v>1.096618394098168</v>
+        <v>0.9176459372826652</v>
       </c>
       <c r="F6">
-        <v>1.11602402809267</v>
+        <v>0.9277699298110613</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030851197667332</v>
+        <v>1.03747967930986</v>
       </c>
       <c r="J6">
-        <v>1.111695414971775</v>
+        <v>0.9263658661016775</v>
       </c>
       <c r="K6">
-        <v>1.117208540134481</v>
+        <v>0.9304731564079877</v>
       </c>
       <c r="L6">
-        <v>1.098901329126323</v>
+        <v>0.9285564651528245</v>
       </c>
       <c r="M6">
-        <v>1.118265414920576</v>
+        <v>0.9385353884065686</v>
       </c>
       <c r="N6">
-        <v>1.113274149974281</v>
+        <v>0.9276814118871916</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.1060879564892</v>
+        <v>0.8897762464774912</v>
       </c>
       <c r="D7">
-        <v>1.113502409299086</v>
+        <v>0.9050724959956834</v>
       </c>
       <c r="E7">
-        <v>1.095292301952369</v>
+        <v>0.904382148680103</v>
       </c>
       <c r="F7">
-        <v>1.114611642624012</v>
+        <v>0.9136459727268583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030784231069518</v>
+        <v>1.036347964208559</v>
       </c>
       <c r="J7">
-        <v>1.110305686856916</v>
+        <v>0.9124844807061739</v>
       </c>
       <c r="K7">
-        <v>1.115804344120403</v>
+        <v>0.9164664267699568</v>
       </c>
       <c r="L7">
-        <v>1.097634374717882</v>
+        <v>0.9157867975515946</v>
       </c>
       <c r="M7">
-        <v>1.116911177785427</v>
+        <v>0.9249085143461165</v>
       </c>
       <c r="N7">
-        <v>1.111882448286095</v>
+        <v>0.9137803133322095</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.099743369558077</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D8">
-        <v>1.107309878670592</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E8">
-        <v>1.089675298802168</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F8">
-        <v>1.108628245297256</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03049280532548</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J8">
-        <v>1.104418631465595</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K8">
-        <v>1.109855952608703</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L8">
-        <v>1.092264797645044</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M8">
-        <v>1.11117113243636</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N8">
-        <v>1.105987032600865</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.088235870116299</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D9">
-        <v>1.096073583794844</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E9">
-        <v>1.079475141734748</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F9">
-        <v>1.097759621190553</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029934201343458</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J9">
-        <v>1.093726086193293</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K9">
-        <v>1.099051890669819</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L9">
-        <v>1.082502128622125</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M9">
-        <v>1.100733072756442</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N9">
-        <v>1.095279302687823</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.080318567965686</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D10">
-        <v>1.088339930342042</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E10">
-        <v>1.072449045978129</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F10">
-        <v>1.090271188024423</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02952982200379</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J10">
-        <v>1.086359419506987</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K10">
-        <v>1.091608387784106</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L10">
-        <v>1.075769278950562</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M10">
-        <v>1.093533465656913</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N10">
-        <v>1.087902174489854</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.076825984059971</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D11">
-        <v>1.084927698830576</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E11">
-        <v>1.069347659027814</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F11">
-        <v>1.086965325642246</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029346738060513</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J11">
-        <v>1.083107354532027</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K11">
-        <v>1.08832241755796</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L11">
-        <v>1.072795385631259</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M11">
-        <v>1.090353235146621</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N11">
-        <v>1.084645491209613</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.075518468687145</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D12">
-        <v>1.083650168936316</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E12">
-        <v>1.068186305326908</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F12">
-        <v>1.085727348650377</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029277496575626</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J12">
-        <v>1.08188952420399</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K12">
-        <v>1.087091894033819</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L12">
-        <v>1.071681478781001</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M12">
-        <v>1.089162021821121</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N12">
-        <v>1.083425931422822</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075799406535542</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D13">
-        <v>1.08392466827037</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E13">
-        <v>1.068435851405535</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F13">
-        <v>1.085993361578363</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029292405645373</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J13">
-        <v>1.082151208138834</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K13">
-        <v>1.087356305260222</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L13">
-        <v>1.071920843066231</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M13">
-        <v>1.089417999114164</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N13">
-        <v>1.08368798697887</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.076718116077813</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D14">
-        <v>1.084822306536692</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E14">
-        <v>1.06925185505448</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F14">
-        <v>1.08686320184591</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029341039968344</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J14">
-        <v>1.083006892704245</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K14">
-        <v>1.088220908555298</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L14">
-        <v>1.072703501717904</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M14">
-        <v>1.090254974764436</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N14">
-        <v>1.084544886714512</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.077282792945092</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D15">
-        <v>1.085374019554267</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E15">
-        <v>1.06975336633653</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F15">
-        <v>1.087397793703342</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029370840281826</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J15">
-        <v>1.083532784575155</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K15">
-        <v>1.088752282273774</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L15">
-        <v>1.07318448036326</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M15">
-        <v>1.090769331086599</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N15">
-        <v>1.0850715254122</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.080548957641251</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D16">
-        <v>1.088565005994887</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E16">
-        <v>1.072653589680603</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F16">
-        <v>1.090489209474298</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029541801397023</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J16">
-        <v>1.086573893424341</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K16">
-        <v>1.091825098179554</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L16">
-        <v>1.075965373245882</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M16">
-        <v>1.093743162400807</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N16">
-        <v>1.088116952984771</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.082580133877988</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D17">
-        <v>1.090549257168752</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E17">
-        <v>1.074456678827848</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F17">
-        <v>1.092411062709513</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029646878008233</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J17">
-        <v>1.088464479390592</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K17">
-        <v>1.093735400523138</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L17">
-        <v>1.077693756337872</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M17">
-        <v>1.095591419120876</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N17">
-        <v>1.090010223799948</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.083758715370909</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D18">
-        <v>1.091700547276454</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E18">
-        <v>1.075502728163057</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F18">
-        <v>1.093525974183618</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029707399540612</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J18">
-        <v>1.089561256398316</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K18">
-        <v>1.09484361680003</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L18">
-        <v>1.078696279815682</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M18">
-        <v>1.096663456907097</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N18">
-        <v>1.091108558356825</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.084159550915401</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D19">
-        <v>1.092092090184106</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E19">
-        <v>1.075858457998562</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F19">
-        <v>1.093905115377405</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029727906641241</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J19">
-        <v>1.089934231626868</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K19">
-        <v>1.095220482299439</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L19">
-        <v>1.079037176388342</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M19">
-        <v>1.097027988042648</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N19">
-        <v>1.091482063252982</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.082362849863556</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D20">
-        <v>1.09033699947703</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E20">
-        <v>1.074263813533468</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F20">
-        <v>1.092205497862282</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02963568396303</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J20">
-        <v>1.088262258530132</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K20">
-        <v>1.093531070615051</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L20">
-        <v>1.077508901148021</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M20">
-        <v>1.095393744814845</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N20">
-        <v>1.08980771576267</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.07644786553783</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D21">
-        <v>1.084558257006801</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E21">
-        <v>1.069011824793765</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F21">
-        <v>1.086607336834616</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029326752793176</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J21">
-        <v>1.082755191645702</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K21">
-        <v>1.087966583926296</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L21">
-        <v>1.072473288138369</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M21">
-        <v>1.090008784739351</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N21">
-        <v>1.084292828211595</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072669489033344</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D22">
-        <v>1.080866353138239</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E22">
-        <v>1.065655270269163</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F22">
-        <v>1.083029226420204</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029125345077349</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J22">
-        <v>1.079235305608551</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K22">
-        <v>1.08441001929142</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L22">
-        <v>1.069253305272066</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M22">
-        <v>1.086565298503553</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N22">
-        <v>1.080767943532534</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.074678298860124</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D23">
-        <v>1.08282924027204</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E23">
-        <v>1.067439973004005</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F23">
-        <v>1.084931760255443</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029232807480627</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J23">
-        <v>1.081106882560087</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K23">
-        <v>1.086301096274631</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L23">
-        <v>1.070965554413382</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M23">
-        <v>1.088396406348006</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N23">
-        <v>1.082642178338015</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.082461050182496</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D24">
-        <v>1.090432928373324</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E24">
-        <v>1.074350978520649</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F24">
-        <v>1.092298402498641</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029640744440544</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J24">
-        <v>1.088353651844062</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K24">
-        <v>1.093623417104933</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L24">
-        <v>1.077592446563426</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M24">
-        <v>1.09548308388956</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N24">
-        <v>1.089899238865589</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.091252183279084</v>
+        <v>0.8000330102922343</v>
       </c>
       <c r="D25">
-        <v>1.099019332539834</v>
+        <v>0.8185290729602208</v>
       </c>
       <c r="E25">
-        <v>1.082150217529299</v>
+        <v>0.8253471978124033</v>
       </c>
       <c r="F25">
-        <v>1.100610351290175</v>
+        <v>0.8295701145849618</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030084121830008</v>
+        <v>1.029632146247379</v>
       </c>
       <c r="J25">
-        <v>1.096530533979314</v>
+        <v>0.8296083386928088</v>
       </c>
       <c r="K25">
-        <v>1.101885593418699</v>
+        <v>0.8328953127570088</v>
       </c>
       <c r="L25">
-        <v>1.085063868126499</v>
+        <v>0.8395599685007374</v>
       </c>
       <c r="M25">
-        <v>1.103472223830235</v>
+        <v>0.8436895131969698</v>
       </c>
       <c r="N25">
-        <v>1.098087733111375</v>
+        <v>0.8307864776911592</v>
       </c>
     </row>
   </sheetData>
